--- a/List QuanThayGioiTreBacSon.xlsx
+++ b/List QuanThayGioiTreBacSon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4076A66-DD24-4D3E-B4E3-15D8CE75AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8779B-0DC9-4DE2-8EDB-1ADD1E2549B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C351434-8AFA-4E5F-9BDD-720A313E3FFF}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
-  <si>
-    <t>Đặng văn cương</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Đặng cương</t>
   </si>
@@ -44,9 +41,6 @@
     <t>Đinh Thị Ngọc</t>
   </si>
   <si>
-    <t>Vũ văn sướng</t>
-  </si>
-  <si>
     <t>Lee suong</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>Đặng K. Linh</t>
   </si>
   <si>
-    <t>Bạch văn Toàn</t>
-  </si>
-  <si>
     <t>Bạch Toàn</t>
   </si>
   <si>
@@ -74,15 +65,9 @@
     <t>Thu Hoài</t>
   </si>
   <si>
-    <t>bạch văn Trọng</t>
-  </si>
-  <si>
     <t>trọng dessmond</t>
   </si>
   <si>
-    <t>Bạch văn tuấn</t>
-  </si>
-  <si>
     <t>Tuan anh</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>Đinh Thị Huế</t>
   </si>
   <si>
-    <t>ĐẶNG THỊ HƯƠNG</t>
-  </si>
-  <si>
     <t>ĐẶNG VĂN HƯƠNG</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>Baor Vux</t>
   </si>
   <si>
-    <t>Đặng đình khải</t>
-  </si>
-  <si>
     <t>Đặng khải</t>
   </si>
   <si>
@@ -167,9 +146,6 @@
     <t>Đăng Hải</t>
   </si>
   <si>
-    <t>Đặng thị mây</t>
-  </si>
-  <si>
     <t>Trúc mây</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>Diệu Linhh</t>
   </si>
   <si>
-    <t>Bạch văn thuỷ</t>
-  </si>
-  <si>
     <t>Bạch thuỷ</t>
   </si>
   <si>
@@ -246,6 +219,42 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Đặng Văn Cương</t>
+  </si>
+  <si>
+    <t>Vũ Văn Sướng</t>
+  </si>
+  <si>
+    <t>Bạch Văn Toàn</t>
+  </si>
+  <si>
+    <t>Bạch Văn Trọng</t>
+  </si>
+  <si>
+    <t>Bạch Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Đặng Thị Hương</t>
+  </si>
+  <si>
+    <t>Bạch Thuỳ Linh</t>
+  </si>
+  <si>
+    <t>Vũ Thuỳ Linh</t>
+  </si>
+  <si>
+    <t>Đặng Đình Khải</t>
+  </si>
+  <si>
+    <t>Đặng Thị Mây</t>
+  </si>
+  <si>
+    <t>Bạch Văn Thuỷ</t>
+  </si>
+  <si>
+    <t>Đặng Khánh Hưng</t>
   </si>
 </sst>
 </file>
@@ -361,7 +370,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -673,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EB67AF-F054-415F-865E-3C2CE6F5A5E2}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,25 +719,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -718,13 +748,13 @@
         <v>44814.351261574076</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3">
         <v>334256415</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -740,13 +770,13 @@
         <v>44814.355532407404</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>982237716</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -762,13 +792,13 @@
         <v>44814.359259259261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3">
         <v>377192881</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -784,13 +814,13 @@
         <v>44814.363692129627</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>926179963</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -806,13 +836,13 @@
         <v>44814.366296296299</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>967582259</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -828,13 +858,13 @@
         <v>44814.366655092592</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>335556224</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -850,13 +880,13 @@
         <v>44814.369479166664</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <v>375568955</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -872,13 +902,13 @@
         <v>44814.375856481478</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3">
         <v>342701848</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -894,13 +924,13 @@
         <v>44814.381562499999</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -916,13 +946,13 @@
         <v>44814.384328703702</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>346521382</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -938,13 +968,13 @@
         <v>44814.384756944448</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>566191087</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -960,13 +990,13 @@
         <v>44814.3903587963</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3">
         <v>329274309</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -982,13 +1012,13 @@
         <v>44814.404513888891</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3">
         <v>879575624</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -1004,13 +1034,13 @@
         <v>44814.404791666668</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>1644361362</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1026,13 +1056,13 @@
         <v>44814.405416666668</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3">
         <v>962368964</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -1048,13 +1078,13 @@
         <v>44814.511770833335</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>349967286</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1070,13 +1100,13 @@
         <v>44814.683368055557</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
         <v>372501246</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1092,13 +1122,13 @@
         <v>44814.856608796297</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>336995111</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1114,13 +1144,13 @@
         <v>44814.876585648148</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3">
         <v>989509622</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
@@ -1136,13 +1166,13 @@
         <v>44844.434259259258</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -1158,13 +1188,13 @@
         <v>44844.439016203702</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3">
         <v>971175004</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -1180,13 +1210,13 @@
         <v>44844.443645833337</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3">
         <v>375819464</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -1202,13 +1232,13 @@
         <v>44844.451805555553</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>1644361362</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
@@ -1224,13 +1254,13 @@
         <v>44844.454375000001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3">
         <v>378281156</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -1246,13 +1276,13 @@
         <v>44844.455983796295</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3">
         <v>378147155</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -1268,13 +1298,13 @@
         <v>44844.472141203703</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3">
         <v>879575165</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
@@ -1290,13 +1320,13 @@
         <v>44844.482511574075</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3">
         <v>368047891</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" s="6">
         <v>1</v>
@@ -1312,13 +1342,13 @@
         <v>44844.486979166664</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D29" s="3">
         <v>342603217</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
@@ -1334,13 +1364,13 @@
         <v>44844.75503472222</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3">
         <v>986014396</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -1356,13 +1386,13 @@
         <v>44844.781041666669</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>372360472</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
@@ -1378,13 +1408,13 @@
         <v>44844.815763888888</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3">
         <v>981752409</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
@@ -1400,13 +1430,13 @@
         <v>44844.817986111113</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3">
         <v>348576380</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
@@ -1422,13 +1452,13 @@
         <v>44844.855092592596</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3">
         <v>349241520</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
@@ -1444,13 +1474,13 @@
         <v>44875.370312500003</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3">
         <v>335768132</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
@@ -1466,13 +1496,13 @@
         <v>44875.371018518519</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3">
         <v>981624937</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F36" s="6">
         <v>1</v>
@@ -1480,6 +1510,9 @@
       <c r="G36" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
